--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="204" windowWidth="14340" windowHeight="4332" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -199,9 +204,6 @@
     <t>DO NOT TOUCH - TAX PAYROLL AUTOMATION</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
-  </si>
-  <si>
     <t>Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx</t>
   </si>
   <si>
@@ -212,12 +214,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,6 +317,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -359,7 +367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,9 +400,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,6 +452,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,15 +651,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -645,7 +687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -659,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -673,7 +715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -701,16 +743,16 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -736,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -756,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -776,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -796,7 +838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -816,7 +858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -836,7 +878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -856,7 +898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -876,7 +918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -896,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -916,7 +958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -936,7 +978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -956,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -976,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -996,7 +1038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1025,25 +1067,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="21" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1084,15 +1126,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>19</v>
@@ -1101,13 +1143,13 @@
         <v>58</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>57</v>
@@ -1119,15 +1161,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>19</v>
@@ -1136,13 +1178,13 @@
         <v>58</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>57</v>
@@ -1154,15 +1196,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>19</v>
@@ -1171,13 +1213,13 @@
         <v>58</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>57</v>
@@ -1189,15 +1231,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>19</v>
@@ -1206,13 +1248,13 @@
         <v>58</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>57</v>
@@ -1224,15 +1266,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
@@ -1241,13 +1283,13 @@
         <v>58</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>57</v>
@@ -1259,15 +1301,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>19</v>
@@ -1276,13 +1318,13 @@
         <v>58</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>57</v>
@@ -1294,15 +1336,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
@@ -1311,13 +1353,13 @@
         <v>58</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>57</v>
@@ -1329,15 +1371,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>19</v>
@@ -1346,13 +1388,13 @@
         <v>58</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>57</v>
@@ -1364,15 +1406,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>19</v>
@@ -1381,13 +1423,13 @@
         <v>58</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>57</v>
@@ -1399,15 +1441,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>19</v>
@@ -1416,13 +1458,13 @@
         <v>58</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>57</v>
@@ -1434,15 +1476,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>19</v>
@@ -1451,13 +1493,13 @@
         <v>58</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>57</v>
@@ -1469,15 +1511,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>19</v>
@@ -1486,13 +1528,13 @@
         <v>58</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>57</v>
@@ -1504,15 +1546,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>19</v>
@@ -1521,13 +1563,13 @@
         <v>58</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>57</v>
@@ -1539,15 +1581,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>19</v>
@@ -1556,13 +1598,13 @@
         <v>58</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>57</v>
@@ -1587,25 +1629,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1646,15 +1688,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>19</v>
@@ -1663,16 +1705,16 @@
         <v>58</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>56</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4332" windowWidth="14340" xWindow="396" yWindow="216"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="65">
   <si>
     <t>TC</t>
   </si>
@@ -218,6 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,49 +265,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -323,10 +324,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -484,7 +485,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -493,13 +494,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -509,7 +510,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -518,7 +519,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -527,7 +528,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -537,12 +538,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -573,7 +574,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -592,7 +593,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -604,7 +605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -613,13 +614,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -647,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -661,7 +662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -675,7 +676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -690,13 +691,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -705,14 +706,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -738,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>50</v>
       </c>
@@ -758,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>51</v>
       </c>
@@ -778,7 +779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>52</v>
       </c>
@@ -798,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>53</v>
       </c>
@@ -818,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>54</v>
       </c>
@@ -838,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
@@ -858,7 +859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>56</v>
       </c>
@@ -878,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>57</v>
       </c>
@@ -898,7 +899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
@@ -918,7 +919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>59</v>
       </c>
@@ -1019,12 +1020,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1033,19 +1034,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="38.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>49</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>49</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>49</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>49</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>49</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>49</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>49</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>49</v>
       </c>
@@ -1578,14 +1579,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A15" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A15"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1594,19 +1595,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="28.95" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1684,8 +1685,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="65">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="65">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="65">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="65">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4332" windowWidth="14340" xWindow="396" yWindow="216"/>
+    <workbookView activeTab="3" windowHeight="4335" windowWidth="14340" xWindow="390" yWindow="210"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>
@@ -212,12 +217,18 @@
   </si>
   <si>
     <t>GLTW_Payroll</t>
+  </si>
+  <si>
+    <t>TestReportworksheetNo</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -269,7 +280,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -300,6 +311,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
@@ -362,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,9 +409,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,6 +461,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,15 +660,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -676,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -704,16 +752,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -759,7 +807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>51</v>
       </c>
@@ -779,7 +827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>52</v>
       </c>
@@ -799,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>53</v>
       </c>
@@ -819,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>54</v>
       </c>
@@ -839,7 +887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
@@ -859,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>56</v>
       </c>
@@ -879,7 +927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>57</v>
       </c>
@@ -899,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
@@ -919,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15" r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>59</v>
       </c>
@@ -939,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>60</v>
       </c>
@@ -959,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>61</v>
       </c>
@@ -979,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>62</v>
       </c>
@@ -999,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>63</v>
       </c>
@@ -1028,25 +1076,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="38.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="58.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1087,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1122,7 +1170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="28.8" r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
@@ -1157,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="28.8" r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>49</v>
       </c>
@@ -1192,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="28.8" r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
@@ -1227,7 +1275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="28.8" r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1262,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="28.8" r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>49</v>
       </c>
@@ -1297,7 +1345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="28.8" r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>49</v>
       </c>
@@ -1332,7 +1380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="28.8" r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
@@ -1367,7 +1415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="28.8" r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -1402,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="28.8" r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row ht="45" r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>49</v>
       </c>
@@ -1437,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="28.8" r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row ht="45" r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>49</v>
       </c>
@@ -1472,7 +1520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="28.8" r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row ht="45" r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>49</v>
       </c>
@@ -1507,7 +1555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="28.8" r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row ht="45" r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>49</v>
       </c>
@@ -1542,7 +1590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="28.8" r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row ht="45" r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>49</v>
       </c>
@@ -1587,27 +1635,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="39.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.0" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="12.85546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1638,17 +1688,20 @@
       <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="28.95" r="2" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="28.9" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1679,7 +1732,10 @@
       <c r="J2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1688,5 +1744,8 @@
     <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="K2"/>
+  </ignoredErrors>
 </worksheet>
 </file>